--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>学習データ数</t>
     <rPh sb="0" eb="2">
@@ -131,6 +131,97 @@
   </si>
   <si>
     <t>0.3くらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この数字は学習毎のブレにあるのか解がそもそも違うのか</t>
+    <rPh sb="2" eb="4">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1→0.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習の半分で学習率を半分に</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ学習プロセスの中で保存することで学習のブレなのか検証</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.1→0.05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間層を変えた時どうなるのか</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,8 +265,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -456,20 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="53.875" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
     <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,6 +588,9 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
       <c r="R1" t="s">
         <v>9</v>
       </c>
@@ -762,6 +858,134 @@
       </c>
       <c r="F9">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="P10">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>501</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500600</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <v>0.9637</v>
+      </c>
+      <c r="H12">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="J12">
+        <v>0.95720000000000005</v>
+      </c>
+      <c r="K12">
+        <v>0.9536</v>
+      </c>
+      <c r="L12">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="M12">
+        <v>0.95889999999999997</v>
+      </c>
+      <c r="N12">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="P12">
+        <v>0.96630000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -987,6 +987,48 @@
       <c r="B13">
         <v>1000</v>
       </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
+      <c r="G13">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.8538</v>
+      </c>
+      <c r="I13">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="K13">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="L13">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="M13">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N13">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="P13">
+        <v>0.85429999999999995</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0.1→0.05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>中間層を変えた時どうなるのか</t>
     <rPh sb="0" eb="2">
       <t>チュウカン</t>
@@ -221,6 +217,31 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間層が少ないときに一致率が低いのでバッチサイズ増やしてみた</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -548,15 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="53.875" customWidth="1"/>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
@@ -646,11 +667,14 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -659,13 +683,43 @@
         <v>100</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.51</v>
+      </c>
+      <c r="H3">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="I3">
+        <v>0.53</v>
+      </c>
+      <c r="J3">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="K3">
+        <v>0.52490000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.51590000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="P3">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="R3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
         <v>1000</v>
       </c>
@@ -679,40 +733,37 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.51</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H4">
-        <v>0.51959999999999995</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="I4">
-        <v>0.53</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="J4">
-        <v>0.53469999999999995</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="K4">
-        <v>0.52490000000000003</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="L4">
-        <v>0.51900000000000002</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="M4">
-        <v>0.52829999999999999</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="N4">
-        <v>0.51590000000000003</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="O4">
-        <v>0.52149999999999996</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="P4">
-        <v>0.49659999999999999</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
+        <v>0.45090000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -720,16 +771,46 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>501</v>
+        <v>1500</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.504</v>
+      </c>
+      <c r="I5">
+        <v>0.5081</v>
+      </c>
+      <c r="J5">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="O5">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.52029999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -746,45 +827,48 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G6">
-        <v>0.47499999999999998</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="H6">
-        <v>0.44869999999999999</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="I6">
-        <v>0.45050000000000001</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="J6">
-        <v>0.46800000000000003</v>
+        <v>0.64019999999999999</v>
       </c>
       <c r="K6">
-        <v>0.39860000000000001</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="L6">
-        <v>0.44690000000000002</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="M6">
-        <v>0.47170000000000001</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="N6">
-        <v>0.45550000000000002</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="O6">
-        <v>0.34499999999999997</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="P6">
-        <v>0.45090000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
       <c r="B7">
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>30</v>
@@ -792,16 +876,52 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>0.5</v>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="H7">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="I7">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.62260000000000004</v>
+      </c>
+      <c r="P7">
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
       <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C8">
-        <v>500</v>
+      <c r="C8" s="1">
+        <v>500600</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -810,60 +930,90 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>0.64180000000000004</v>
+        <v>0.9637</v>
       </c>
       <c r="H8">
-        <v>0.63949999999999996</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="I8">
-        <v>0.65869999999999995</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="J8">
-        <v>0.64019999999999999</v>
+        <v>0.95720000000000005</v>
       </c>
       <c r="K8">
-        <v>0.63580000000000003</v>
+        <v>0.9536</v>
       </c>
       <c r="L8">
-        <v>0.62929999999999997</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="M8">
-        <v>0.64810000000000001</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="N8">
-        <v>0.63029999999999997</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="O8">
-        <v>0.65369999999999995</v>
+        <v>0.96020000000000005</v>
       </c>
       <c r="P8">
-        <v>0.60899999999999999</v>
+        <v>0.96630000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
       <c r="B9">
         <v>1000</v>
       </c>
       <c r="C9">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.8538</v>
+      </c>
+      <c r="I9">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.84960000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N9">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="P9">
+        <v>0.85429999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10">
         <v>1000</v>
       </c>
@@ -871,46 +1021,43 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="F10">
+        <v>0.1</v>
       </c>
       <c r="G10">
-        <v>0.63429999999999997</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="H10">
-        <v>0.61229999999999996</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="I10">
-        <v>0.64629999999999999</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="J10">
-        <v>0.65129999999999999</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="K10">
-        <v>0.64300000000000002</v>
+        <v>0.87870000000000004</v>
       </c>
       <c r="L10">
-        <v>0.62360000000000004</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="M10">
-        <v>0.62819999999999998</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="N10">
-        <v>0.63600000000000001</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="O10">
-        <v>0.62260000000000004</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="P10">
-        <v>0.62339999999999995</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>14</v>
+        <v>0.87319999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -918,30 +1065,57 @@
         <v>1000</v>
       </c>
       <c r="C11">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.8891</v>
+      </c>
+      <c r="K11">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="N11">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.88980000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C12" s="1">
-        <v>500600</v>
+      <c r="C12">
+        <v>500</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -950,40 +1124,37 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0.9637</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="H12">
-        <v>0.94410000000000005</v>
+        <v>0.5151</v>
       </c>
       <c r="I12">
-        <v>0.96109999999999995</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="J12">
-        <v>0.95720000000000005</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="K12">
-        <v>0.9536</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="L12">
-        <v>0.96599999999999997</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="M12">
-        <v>0.95889999999999997</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="N12">
-        <v>0.96560000000000001</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="O12">
-        <v>0.96020000000000005</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="P12">
-        <v>0.96630000000000005</v>
+        <v>0.50739999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
       <c r="B13">
         <v>1000</v>
       </c>
@@ -991,7 +1162,7 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>600</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1000,34 +1171,225 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.85780000000000001</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="H13">
-        <v>0.8538</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="I13">
-        <v>0.84989999999999999</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="J13">
-        <v>0.85919999999999996</v>
+        <v>0.3931</v>
       </c>
       <c r="K13">
-        <v>0.85309999999999997</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="L13">
-        <v>0.84960000000000002</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="M13">
-        <v>0.85309999999999997</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="N13">
-        <v>0.84760000000000002</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="O13">
-        <v>0.85770000000000002</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P13">
-        <v>0.85429999999999995</v>
+        <v>0.35649999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.30940000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2374</v>
+      </c>
+      <c r="J14">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="L14">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.29380000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.3805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15">
+        <v>0.4088</v>
+      </c>
+      <c r="H15">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="J15">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="K15">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="M15">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.1142</v>
+      </c>
+      <c r="O15">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.12130000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.13339999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.89070000000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.1421</v>
+      </c>
+      <c r="K16">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="L16">
+        <v>0.6673</v>
+      </c>
+      <c r="M16">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="N16">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="O16">
+        <v>0.48049999999999998</v>
+      </c>
+      <c r="P16">
+        <v>0.44159999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="I17">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J17">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="K17">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="M17">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="O17">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="P17">
+        <v>0.59840000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>学習データ数</t>
     <rPh sb="0" eb="2">
@@ -242,6 +242,31 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回帰として見てみた時，一致率の部分は誤差．</t>
+    <rPh sb="0" eb="2">
+      <t>カイキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゴサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1345,7 +1370,7 @@
         <v>0.44159999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>1000</v>
       </c>
@@ -1390,6 +1415,11 @@
       </c>
       <c r="P17">
         <v>0.59840000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -246,7 +246,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回帰として見てみた時，一致率の部分は誤差．</t>
+    <t>回帰として見てみた時，一致率の部分は値の差の平均</t>
     <rPh sb="0" eb="2">
       <t>カイキ</t>
     </rPh>
@@ -265,8 +265,14 @@
     <rPh sb="15" eb="17">
       <t>ブブン</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴサ</t>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1421,6 +1427,115 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19">
+        <v>22.6</v>
+      </c>
+      <c r="H19">
+        <v>24.1</v>
+      </c>
+      <c r="I19">
+        <v>24.7</v>
+      </c>
+      <c r="J19">
+        <v>24.6</v>
+      </c>
+      <c r="K19">
+        <v>22.5</v>
+      </c>
+      <c r="L19">
+        <v>23.3</v>
+      </c>
+      <c r="M19">
+        <v>24.8</v>
+      </c>
+      <c r="N19">
+        <v>24.2</v>
+      </c>
+      <c r="O19">
+        <v>22.8</v>
+      </c>
+      <c r="P19">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20">
+        <v>29.9</v>
+      </c>
+      <c r="H20">
+        <v>30.9</v>
+      </c>
+      <c r="I20">
+        <v>30.4</v>
+      </c>
+      <c r="J20">
+        <v>28.6</v>
+      </c>
+      <c r="K20">
+        <v>29.6</v>
+      </c>
+      <c r="L20">
+        <v>28.8</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20">
+        <v>29.8</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>学習データ数</t>
     <rPh sb="0" eb="2">
@@ -246,7 +246,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回帰として見てみた時，一致率の部分は値の差の平均</t>
+    <t>回帰として見てみた時．一致率の部分は値の差の平均</t>
     <rPh sb="0" eb="2">
       <t>カイキ</t>
     </rPh>
@@ -273,6 +273,51 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エポック数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習率を下げる，エポック数を増やしてみると</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間層増やしてエポック数を増やすとどうなるか</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1423,18 +1468,38 @@
         <v>0.59840000000000004</v>
       </c>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>4000</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>0.01</v>
+      </c>
+    </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>1000</v>
       </c>
       <c r="C19">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1442,85 +1507,11 @@
       <c r="F19">
         <v>0.1</v>
       </c>
-      <c r="G19">
-        <v>22.6</v>
-      </c>
-      <c r="H19">
-        <v>24.1</v>
-      </c>
-      <c r="I19">
-        <v>24.7</v>
-      </c>
-      <c r="J19">
-        <v>24.6</v>
-      </c>
-      <c r="K19">
-        <v>22.5</v>
-      </c>
-      <c r="L19">
-        <v>23.3</v>
-      </c>
-      <c r="M19">
-        <v>24.8</v>
-      </c>
-      <c r="N19">
-        <v>24.2</v>
-      </c>
-      <c r="O19">
-        <v>22.8</v>
-      </c>
-      <c r="P19">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>1000</v>
-      </c>
-      <c r="C20">
-        <v>1000</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>0.1</v>
-      </c>
-      <c r="G20">
-        <v>29.9</v>
-      </c>
-      <c r="H20">
-        <v>30.9</v>
-      </c>
-      <c r="I20">
-        <v>30.4</v>
-      </c>
-      <c r="J20">
-        <v>28.6</v>
-      </c>
-      <c r="K20">
-        <v>29.6</v>
-      </c>
-      <c r="L20">
-        <v>28.8</v>
-      </c>
-      <c r="M20">
-        <v>30</v>
-      </c>
-      <c r="N20">
-        <v>29.8</v>
-      </c>
-      <c r="O20">
-        <v>30</v>
-      </c>
-      <c r="P20">
-        <v>29.8</v>
-      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
       <c r="B21">
         <v>1000</v>
       </c>
@@ -1535,6 +1526,368 @@
       </c>
       <c r="F21">
         <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>22.6</v>
+      </c>
+      <c r="H21">
+        <v>24.1</v>
+      </c>
+      <c r="I21">
+        <v>24.7</v>
+      </c>
+      <c r="J21">
+        <v>24.6</v>
+      </c>
+      <c r="K21">
+        <v>22.5</v>
+      </c>
+      <c r="L21">
+        <v>23.3</v>
+      </c>
+      <c r="M21">
+        <v>24.8</v>
+      </c>
+      <c r="N21">
+        <v>24.2</v>
+      </c>
+      <c r="O21">
+        <v>22.8</v>
+      </c>
+      <c r="P21">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>29.9</v>
+      </c>
+      <c r="H22">
+        <v>30.9</v>
+      </c>
+      <c r="I22">
+        <v>30.4</v>
+      </c>
+      <c r="J22">
+        <v>28.6</v>
+      </c>
+      <c r="K22">
+        <v>29.6</v>
+      </c>
+      <c r="L22">
+        <v>28.8</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>29.8</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>300</v>
+      </c>
+      <c r="E23">
+        <v>100</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H23">
+        <v>8.9</v>
+      </c>
+      <c r="I23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J23">
+        <v>8.9</v>
+      </c>
+      <c r="K23">
+        <v>9.1</v>
+      </c>
+      <c r="L23">
+        <v>8.9</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
+      <c r="G24">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H24">
+        <v>5.4</v>
+      </c>
+      <c r="I24">
+        <v>5.5</v>
+      </c>
+      <c r="J24">
+        <v>5.3</v>
+      </c>
+      <c r="K24">
+        <v>5.2</v>
+      </c>
+      <c r="L24">
+        <v>5.4</v>
+      </c>
+      <c r="M24">
+        <v>5.4</v>
+      </c>
+      <c r="N24">
+        <v>5.6</v>
+      </c>
+      <c r="O24">
+        <v>5.3</v>
+      </c>
+      <c r="P24">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>1000</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>100</v>
+      </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
+      <c r="G25">
+        <v>33.860999999999997</v>
+      </c>
+      <c r="H25">
+        <v>36.5</v>
+      </c>
+      <c r="I25">
+        <v>36.5</v>
+      </c>
+      <c r="J25">
+        <v>51.6</v>
+      </c>
+      <c r="K25">
+        <v>35.9</v>
+      </c>
+      <c r="L25">
+        <v>36</v>
+      </c>
+      <c r="M25">
+        <v>32.5</v>
+      </c>
+      <c r="N25">
+        <v>36.6</v>
+      </c>
+      <c r="O25">
+        <v>35.1</v>
+      </c>
+      <c r="P25">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26">
+        <v>500</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26">
+        <v>39.9</v>
+      </c>
+      <c r="H26">
+        <v>37.4</v>
+      </c>
+      <c r="I26">
+        <v>37.4</v>
+      </c>
+      <c r="J26">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K26">
+        <v>39.9</v>
+      </c>
+      <c r="L26">
+        <v>39</v>
+      </c>
+      <c r="M26">
+        <v>39.1</v>
+      </c>
+      <c r="N26">
+        <v>37.9</v>
+      </c>
+      <c r="O26">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27">
+        <v>500</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G27">
+        <v>18.5</v>
+      </c>
+      <c r="H27">
+        <v>19.2</v>
+      </c>
+      <c r="I27">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J27">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K27">
+        <v>18.7</v>
+      </c>
+      <c r="L27">
+        <v>17.5</v>
+      </c>
+      <c r="M27">
+        <v>19.2</v>
+      </c>
+      <c r="N27">
+        <v>19</v>
+      </c>
+      <c r="O27">
+        <v>17.2</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <v>500</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>1000</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28">
+        <v>1.5</v>
+      </c>
+      <c r="H28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.4</v>
+      </c>
+      <c r="J28">
+        <v>1.2</v>
+      </c>
+      <c r="K28">
+        <v>1.3</v>
+      </c>
+      <c r="L28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M28">
+        <v>1.5</v>
+      </c>
+      <c r="N28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O28">
+        <v>1.2</v>
+      </c>
+      <c r="P28">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>学習データ数</t>
     <rPh sb="0" eb="2">
@@ -318,6 +318,55 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチサイズ変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エポック数のみ増加</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エポック数のみ減少</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここが高いのは学習が進んでいないため？認識率が３割くらい</t>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -645,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -659,7 +708,7 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="25.5" customWidth="1"/>
+    <col min="17" max="17" width="54.375" customWidth="1"/>
     <col min="18" max="18" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -744,7 +793,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1000</v>
@@ -756,46 +805,49 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.51</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="H3">
-        <v>0.51959999999999995</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="I3">
-        <v>0.53</v>
+        <v>0.73829999999999996</v>
       </c>
       <c r="J3">
-        <v>0.53469999999999995</v>
+        <v>0.7782</v>
       </c>
       <c r="K3">
-        <v>0.52490000000000003</v>
+        <v>0.80630000000000002</v>
       </c>
       <c r="L3">
-        <v>0.51900000000000002</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="M3">
-        <v>0.52829999999999999</v>
+        <v>0.7419</v>
       </c>
       <c r="N3">
-        <v>0.51590000000000003</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="O3">
-        <v>0.52149999999999996</v>
+        <v>0.77470000000000006</v>
       </c>
       <c r="P3">
-        <v>0.49659999999999999</v>
-      </c>
-      <c r="R3" t="s">
-        <v>10</v>
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
       <c r="B4">
         <v>1000</v>
       </c>
@@ -809,37 +861,40 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G4">
-        <v>0.47499999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="H4">
-        <v>0.44869999999999999</v>
+        <v>0.51959999999999995</v>
       </c>
       <c r="I4">
-        <v>0.45050000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="J4">
-        <v>0.46800000000000003</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="K4">
-        <v>0.39860000000000001</v>
+        <v>0.52490000000000003</v>
       </c>
       <c r="L4">
-        <v>0.44690000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="M4">
-        <v>0.47170000000000001</v>
+        <v>0.52829999999999999</v>
       </c>
       <c r="N4">
-        <v>0.45550000000000002</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="O4">
-        <v>0.34499999999999997</v>
+        <v>0.52149999999999996</v>
       </c>
       <c r="P4">
-        <v>0.45090000000000002</v>
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="R4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -847,46 +902,46 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D5">
         <v>30</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.47860000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H5">
-        <v>0.504</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="I5">
-        <v>0.5081</v>
+        <v>0.45050000000000001</v>
       </c>
       <c r="J5">
-        <v>0.52029999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="K5">
-        <v>0.51449999999999996</v>
+        <v>0.39860000000000001</v>
       </c>
       <c r="L5">
-        <v>0.50439999999999996</v>
+        <v>0.44690000000000002</v>
       </c>
       <c r="M5">
-        <v>0.50509999999999999</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="N5">
-        <v>0.50760000000000005</v>
+        <v>0.45550000000000002</v>
       </c>
       <c r="O5">
-        <v>0.49430000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="P5">
-        <v>0.52029999999999998</v>
+        <v>0.45090000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -894,52 +949,49 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.64180000000000004</v>
+        <v>0.47860000000000003</v>
       </c>
       <c r="H6">
-        <v>0.63949999999999996</v>
+        <v>0.504</v>
       </c>
       <c r="I6">
-        <v>0.65869999999999995</v>
+        <v>0.5081</v>
       </c>
       <c r="J6">
-        <v>0.64019999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
       <c r="K6">
-        <v>0.63580000000000003</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="L6">
-        <v>0.62929999999999997</v>
+        <v>0.50439999999999996</v>
       </c>
       <c r="M6">
-        <v>0.64810000000000001</v>
+        <v>0.50509999999999999</v>
       </c>
       <c r="N6">
-        <v>0.63029999999999997</v>
+        <v>0.50760000000000005</v>
       </c>
       <c r="O6">
-        <v>0.65369999999999995</v>
+        <v>0.49430000000000002</v>
       </c>
       <c r="P6">
-        <v>0.60899999999999999</v>
+        <v>0.52029999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
       <c r="B7">
         <v>1000</v>
       </c>
@@ -952,52 +1004,49 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="F7">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G7">
-        <v>0.63429999999999997</v>
+        <v>0.64180000000000004</v>
       </c>
       <c r="H7">
-        <v>0.61229999999999996</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="I7">
-        <v>0.64629999999999999</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="J7">
-        <v>0.65129999999999999</v>
+        <v>0.64019999999999999</v>
       </c>
       <c r="K7">
-        <v>0.64300000000000002</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="L7">
-        <v>0.62360000000000004</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="M7">
-        <v>0.62819999999999998</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="N7">
-        <v>0.63600000000000001</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="O7">
-        <v>0.62260000000000004</v>
+        <v>0.65369999999999995</v>
       </c>
       <c r="P7">
-        <v>0.62339999999999995</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>14</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
-        <v>500600</v>
+      <c r="C8">
+        <v>500</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -1005,52 +1054,55 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8">
-        <v>0.1</v>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>0.9637</v>
+        <v>0.63429999999999997</v>
       </c>
       <c r="H8">
-        <v>0.94410000000000005</v>
+        <v>0.61229999999999996</v>
       </c>
       <c r="I8">
-        <v>0.96109999999999995</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="J8">
-        <v>0.95720000000000005</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="K8">
-        <v>0.9536</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="L8">
-        <v>0.96599999999999997</v>
+        <v>0.62360000000000004</v>
       </c>
       <c r="M8">
-        <v>0.95889999999999997</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="N8">
-        <v>0.96560000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="O8">
-        <v>0.96020000000000005</v>
+        <v>0.62260000000000004</v>
       </c>
       <c r="P8">
-        <v>0.96630000000000005</v>
+        <v>0.62339999999999995</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1000</v>
       </c>
-      <c r="C9">
-        <v>500</v>
+      <c r="C9" s="1">
+        <v>500600</v>
       </c>
       <c r="D9">
-        <v>600</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -1059,37 +1111,40 @@
         <v>0.1</v>
       </c>
       <c r="G9">
-        <v>0.85780000000000001</v>
+        <v>0.9637</v>
       </c>
       <c r="H9">
-        <v>0.8538</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="I9">
-        <v>0.84989999999999999</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="J9">
-        <v>0.85919999999999996</v>
+        <v>0.95720000000000005</v>
       </c>
       <c r="K9">
-        <v>0.85309999999999997</v>
+        <v>0.9536</v>
       </c>
       <c r="L9">
-        <v>0.84960000000000002</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="M9">
-        <v>0.85309999999999997</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="N9">
-        <v>0.84760000000000002</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="O9">
-        <v>0.85770000000000002</v>
+        <v>0.96020000000000005</v>
       </c>
       <c r="P9">
-        <v>0.85429999999999995</v>
+        <v>0.96630000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
       <c r="B10">
         <v>1000</v>
       </c>
@@ -1097,7 +1152,7 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1106,34 +1161,34 @@
         <v>0.1</v>
       </c>
       <c r="G10">
-        <v>0.88029999999999997</v>
+        <v>0.85780000000000001</v>
       </c>
       <c r="H10">
-        <v>0.88170000000000004</v>
+        <v>0.8538</v>
       </c>
       <c r="I10">
-        <v>0.87819999999999998</v>
+        <v>0.84989999999999999</v>
       </c>
       <c r="J10">
-        <v>0.87380000000000002</v>
+        <v>0.85919999999999996</v>
       </c>
       <c r="K10">
-        <v>0.87870000000000004</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="L10">
-        <v>0.87580000000000002</v>
+        <v>0.84960000000000002</v>
       </c>
       <c r="M10">
-        <v>0.87929999999999997</v>
+        <v>0.85309999999999997</v>
       </c>
       <c r="N10">
-        <v>0.87409999999999999</v>
+        <v>0.84760000000000002</v>
       </c>
       <c r="O10">
-        <v>0.87270000000000003</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="P10">
-        <v>0.87319999999999998</v>
+        <v>0.85429999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1144,7 +1199,7 @@
         <v>500</v>
       </c>
       <c r="D11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1153,34 +1208,34 @@
         <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.89159999999999995</v>
+        <v>0.88029999999999997</v>
       </c>
       <c r="H11">
-        <v>0.89170000000000005</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="I11">
-        <v>0.89439999999999997</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="J11">
-        <v>0.8891</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="K11">
-        <v>0.89019999999999999</v>
+        <v>0.87870000000000004</v>
       </c>
       <c r="L11">
-        <v>0.88480000000000003</v>
+        <v>0.87580000000000002</v>
       </c>
       <c r="M11">
-        <v>0.89180000000000004</v>
+        <v>0.87929999999999997</v>
       </c>
       <c r="N11">
-        <v>0.89480000000000004</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="O11">
-        <v>0.89100000000000001</v>
+        <v>0.87270000000000003</v>
       </c>
       <c r="P11">
-        <v>0.88980000000000004</v>
+        <v>0.87319999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1191,7 +1246,7 @@
         <v>500</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1200,34 +1255,34 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <v>0.51590000000000003</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="H12">
-        <v>0.5151</v>
+        <v>0.89170000000000005</v>
       </c>
       <c r="I12">
-        <v>0.49130000000000001</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="J12">
-        <v>0.49370000000000003</v>
+        <v>0.8891</v>
       </c>
       <c r="K12">
-        <v>0.53549999999999998</v>
+        <v>0.89019999999999999</v>
       </c>
       <c r="L12">
-        <v>0.52680000000000005</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="M12">
-        <v>0.50539999999999996</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="N12">
-        <v>0.48199999999999998</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="O12">
-        <v>0.50070000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="P12">
-        <v>0.50739999999999996</v>
+        <v>0.88980000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
@@ -1238,7 +1293,7 @@
         <v>500</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1247,34 +1302,34 @@
         <v>0.1</v>
       </c>
       <c r="G13">
-        <v>0.42830000000000001</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="H13">
-        <v>0.37719999999999998</v>
+        <v>0.5151</v>
       </c>
       <c r="I13">
-        <v>0.44500000000000001</v>
+        <v>0.49130000000000001</v>
       </c>
       <c r="J13">
-        <v>0.3931</v>
+        <v>0.49370000000000003</v>
       </c>
       <c r="K13">
-        <v>0.37809999999999999</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="L13">
-        <v>0.38669999999999999</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="M13">
-        <v>0.37680000000000002</v>
+        <v>0.50539999999999996</v>
       </c>
       <c r="N13">
-        <v>0.37430000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="O13">
-        <v>0.36299999999999999</v>
+        <v>0.50070000000000003</v>
       </c>
       <c r="P13">
-        <v>0.35649999999999998</v>
+        <v>0.50739999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1285,7 +1340,7 @@
         <v>500</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -1294,34 +1349,34 @@
         <v>0.1</v>
       </c>
       <c r="G14">
-        <v>0.18049999999999999</v>
+        <v>0.42830000000000001</v>
       </c>
       <c r="H14">
-        <v>0.30940000000000001</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="I14">
-        <v>0.2374</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="J14">
-        <v>0.25269999999999998</v>
+        <v>0.3931</v>
       </c>
       <c r="K14">
-        <v>0.27900000000000003</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="L14">
-        <v>0.24759999999999999</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="M14">
-        <v>0.34849999999999998</v>
+        <v>0.37680000000000002</v>
       </c>
       <c r="N14">
-        <v>0.26550000000000001</v>
+        <v>0.37430000000000002</v>
       </c>
       <c r="O14">
-        <v>0.29380000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P14">
-        <v>0.3805</v>
+        <v>0.35649999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -1332,7 +1387,7 @@
         <v>500</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -1341,40 +1396,37 @@
         <v>0.1</v>
       </c>
       <c r="G15">
-        <v>0.4088</v>
+        <v>0.18049999999999999</v>
       </c>
       <c r="H15">
-        <v>0.32769999999999999</v>
+        <v>0.30940000000000001</v>
       </c>
       <c r="I15">
-        <v>0.41039999999999999</v>
+        <v>0.2374</v>
       </c>
       <c r="J15">
-        <v>7.5899999999999995E-2</v>
+        <v>0.25269999999999998</v>
       </c>
       <c r="K15">
-        <v>9.8000000000000004E-2</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="L15">
-        <v>0.70840000000000003</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="M15">
-        <v>0.32519999999999999</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="N15">
-        <v>0.1142</v>
+        <v>0.26550000000000001</v>
       </c>
       <c r="O15">
-        <v>5.6000000000000001E-2</v>
+        <v>0.29380000000000001</v>
       </c>
       <c r="P15">
-        <v>0.12130000000000001</v>
+        <v>0.3805</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
       <c r="B16">
         <v>1000</v>
       </c>
@@ -1385,98 +1437,101 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0.1</v>
       </c>
       <c r="G16">
-        <v>0.66320000000000001</v>
+        <v>0.4088</v>
       </c>
       <c r="H16">
-        <v>0.13339999999999999</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="I16">
-        <v>0.89070000000000005</v>
+        <v>0.41039999999999999</v>
       </c>
       <c r="J16">
-        <v>0.1421</v>
+        <v>7.5899999999999995E-2</v>
       </c>
       <c r="K16">
-        <v>0.53100000000000003</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="L16">
-        <v>0.6673</v>
+        <v>0.70840000000000003</v>
       </c>
       <c r="M16">
-        <v>0.48870000000000002</v>
+        <v>0.32519999999999999</v>
       </c>
       <c r="N16">
-        <v>0.52580000000000005</v>
+        <v>0.1142</v>
       </c>
       <c r="O16">
-        <v>0.48049999999999998</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="P16">
-        <v>0.44159999999999999</v>
+        <v>0.12130000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
       <c r="B17">
         <v>1000</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F17">
         <v>0.1</v>
       </c>
       <c r="G17">
-        <v>0.60940000000000005</v>
+        <v>0.66320000000000001</v>
       </c>
       <c r="H17">
-        <v>0.61229999999999996</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="I17">
-        <v>0.60419999999999996</v>
+        <v>0.89070000000000005</v>
       </c>
       <c r="J17">
-        <v>0.56989999999999996</v>
+        <v>0.1421</v>
       </c>
       <c r="K17">
-        <v>0.63829999999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="L17">
-        <v>0.62649999999999995</v>
+        <v>0.6673</v>
       </c>
       <c r="M17">
-        <v>0.62190000000000001</v>
+        <v>0.48870000000000002</v>
       </c>
       <c r="N17">
-        <v>0.60850000000000004</v>
+        <v>0.52580000000000005</v>
       </c>
       <c r="O17">
-        <v>0.60919999999999996</v>
+        <v>0.48049999999999998</v>
       </c>
       <c r="P17">
-        <v>0.59840000000000004</v>
+        <v>0.44159999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1000</v>
       </c>
       <c r="C18">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -1485,21 +1540,51 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="H18">
+        <v>0.61229999999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="K18">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="L18">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="M18">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.60850000000000004</v>
+      </c>
+      <c r="O18">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="P18">
+        <v>0.59840000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1000</v>
       </c>
       <c r="C19">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -1507,16 +1592,46 @@
       <c r="F19">
         <v>0.1</v>
       </c>
+      <c r="G19">
+        <v>0.61319999999999997</v>
+      </c>
+      <c r="H19">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="J19">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="K19">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="L19">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="M19">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.62060000000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="P19">
+        <v>0.61450000000000005</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>1000</v>
       </c>
       <c r="C21">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="D21">
         <v>30</v>
@@ -1525,51 +1640,51 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G21">
-        <v>22.6</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="H21">
-        <v>24.1</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="I21">
-        <v>24.7</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="J21">
-        <v>24.6</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="K21">
-        <v>22.5</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="L21">
-        <v>23.3</v>
+        <v>0.69220000000000004</v>
       </c>
       <c r="M21">
-        <v>24.8</v>
+        <v>0.66579999999999995</v>
       </c>
       <c r="N21">
-        <v>24.2</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="O21">
-        <v>22.8</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="P21">
-        <v>22.5</v>
+        <v>0.65920000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -1578,84 +1693,40 @@
         <v>0.1</v>
       </c>
       <c r="G22">
-        <v>29.9</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="H22">
-        <v>30.9</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="I22">
-        <v>30.4</v>
+        <v>0.87829999999999997</v>
       </c>
       <c r="J22">
-        <v>28.6</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="K22">
-        <v>29.6</v>
+        <v>0.87539999999999996</v>
       </c>
       <c r="L22">
-        <v>28.8</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>0.87970000000000004</v>
       </c>
       <c r="N22">
-        <v>29.8</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="O22">
-        <v>30</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="P22">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B23">
-        <v>1000</v>
-      </c>
-      <c r="C23">
-        <v>500</v>
-      </c>
-      <c r="D23">
-        <v>300</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>0.1</v>
-      </c>
-      <c r="G23">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H23">
-        <v>8.9</v>
-      </c>
-      <c r="I23">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J23">
-        <v>8.9</v>
-      </c>
-      <c r="K23">
-        <v>9.1</v>
-      </c>
-      <c r="L23">
-        <v>8.9</v>
-      </c>
-      <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O23">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P23">
-        <v>9</v>
+        <v>0.87629999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
       <c r="B24">
         <v>1000</v>
       </c>
@@ -1663,7 +1734,7 @@
         <v>500</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -1672,45 +1743,48 @@
         <v>0.1</v>
       </c>
       <c r="G24">
-        <v>5.0999999999999996</v>
+        <v>22.6</v>
       </c>
       <c r="H24">
-        <v>5.4</v>
+        <v>24.1</v>
       </c>
       <c r="I24">
-        <v>5.5</v>
+        <v>24.7</v>
       </c>
       <c r="J24">
-        <v>5.3</v>
+        <v>24.6</v>
       </c>
       <c r="K24">
-        <v>5.2</v>
+        <v>22.5</v>
       </c>
       <c r="L24">
-        <v>5.4</v>
+        <v>23.3</v>
       </c>
       <c r="M24">
-        <v>5.4</v>
+        <v>24.8</v>
       </c>
       <c r="N24">
-        <v>5.6</v>
+        <v>24.2</v>
       </c>
       <c r="O24">
-        <v>5.3</v>
+        <v>22.8</v>
       </c>
       <c r="P24">
-        <v>5.3</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
       <c r="B25">
         <v>1000</v>
       </c>
       <c r="C25">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1719,34 +1793,34 @@
         <v>0.1</v>
       </c>
       <c r="G25">
-        <v>33.860999999999997</v>
+        <v>29.9</v>
       </c>
       <c r="H25">
-        <v>36.5</v>
+        <v>30.9</v>
       </c>
       <c r="I25">
-        <v>36.5</v>
+        <v>30.4</v>
       </c>
       <c r="J25">
-        <v>51.6</v>
+        <v>28.6</v>
       </c>
       <c r="K25">
-        <v>35.9</v>
+        <v>29.6</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>28.8</v>
       </c>
       <c r="M25">
-        <v>32.5</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>36.6</v>
+        <v>29.8</v>
       </c>
       <c r="O25">
-        <v>35.1</v>
+        <v>30</v>
       </c>
       <c r="P25">
-        <v>34.700000000000003</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
@@ -1757,43 +1831,43 @@
         <v>500</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>39.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H26">
-        <v>37.4</v>
+        <v>8.9</v>
       </c>
       <c r="I26">
-        <v>37.4</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J26">
-        <v>37.799999999999997</v>
+        <v>8.9</v>
       </c>
       <c r="K26">
-        <v>39.9</v>
+        <v>9.1</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>8.9</v>
       </c>
       <c r="M26">
-        <v>39.1</v>
+        <v>9</v>
       </c>
       <c r="N26">
-        <v>37.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O26">
-        <v>37.200000000000003</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
@@ -1804,43 +1878,43 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G27">
-        <v>18.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H27">
-        <v>19.2</v>
+        <v>5.4</v>
       </c>
       <c r="I27">
-        <v>18.899999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="J27">
-        <v>18.399999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="K27">
-        <v>18.7</v>
+        <v>5.2</v>
       </c>
       <c r="L27">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="M27">
-        <v>19.2</v>
+        <v>5.4</v>
       </c>
       <c r="N27">
-        <v>19</v>
+        <v>5.6</v>
       </c>
       <c r="O27">
-        <v>17.2</v>
+        <v>5.3</v>
       </c>
       <c r="P27">
-        <v>19</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
@@ -1851,42 +1925,183 @@
         <v>500</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>0.1</v>
       </c>
       <c r="G28">
+        <v>33.860999999999997</v>
+      </c>
+      <c r="H28">
+        <v>36.5</v>
+      </c>
+      <c r="I28">
+        <v>36.5</v>
+      </c>
+      <c r="J28">
+        <v>51.6</v>
+      </c>
+      <c r="K28">
+        <v>35.9</v>
+      </c>
+      <c r="L28">
+        <v>36</v>
+      </c>
+      <c r="M28">
+        <v>32.5</v>
+      </c>
+      <c r="N28">
+        <v>36.6</v>
+      </c>
+      <c r="O28">
+        <v>35.1</v>
+      </c>
+      <c r="P28">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>1000</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+      <c r="G29">
+        <v>39.9</v>
+      </c>
+      <c r="H29">
+        <v>37.4</v>
+      </c>
+      <c r="I29">
+        <v>37.4</v>
+      </c>
+      <c r="J29">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K29">
+        <v>39.9</v>
+      </c>
+      <c r="L29">
+        <v>39</v>
+      </c>
+      <c r="M29">
+        <v>39.1</v>
+      </c>
+      <c r="N29">
+        <v>37.9</v>
+      </c>
+      <c r="O29">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>1000</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G30">
+        <v>18.5</v>
+      </c>
+      <c r="H30">
+        <v>19.2</v>
+      </c>
+      <c r="I30">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J30">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K30">
+        <v>18.7</v>
+      </c>
+      <c r="L30">
+        <v>17.5</v>
+      </c>
+      <c r="M30">
+        <v>19.2</v>
+      </c>
+      <c r="N30">
+        <v>19</v>
+      </c>
+      <c r="O30">
+        <v>17.2</v>
+      </c>
+      <c r="P30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1000</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31">
         <v>1.5</v>
       </c>
-      <c r="H28">
+      <c r="H31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I28">
+      <c r="I31">
         <v>1.4</v>
       </c>
-      <c r="J28">
+      <c r="J31">
         <v>1.2</v>
       </c>
-      <c r="K28">
+      <c r="K31">
         <v>1.3</v>
       </c>
-      <c r="L28">
+      <c r="L31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M28">
+      <c r="M31">
         <v>1.5</v>
       </c>
-      <c r="N28">
+      <c r="N31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O28">
+      <c r="O31">
         <v>1.2</v>
       </c>
-      <c r="P28">
+      <c r="P31">
         <v>1.5</v>
       </c>
     </row>

--- a/kennsyou.xlsx
+++ b/kennsyou.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
